--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -373,6 +373,21 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa</t>
+  </si>
+  <si>
+    <t>Khôn sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Lỗi main</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -804,6 +819,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -821,30 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,43 +1203,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1269,58 +1284,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1345,23 +1360,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,7 +1430,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1446,7 +1461,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1490,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1504,7 +1519,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1533,7 +1548,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1577,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1606,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1622,7 +1637,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1666,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1695,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1724,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2940,13 +2955,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2958,6 +2966,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3001,43 +3016,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3082,58 +3097,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3158,23 +3173,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3228,7 +3243,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3283,7 +3298,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3334,7 +3349,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3363,7 +3378,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3392,7 +3407,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3421,7 +3436,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3450,7 +3465,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3481,7 +3496,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3510,7 +3525,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3539,7 +3554,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3568,7 +3583,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4799,6 +4814,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4810,13 +4832,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4828,7 +4843,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4860,43 +4875,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4941,58 +4956,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5017,23 +5032,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5083,7 +5098,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5138,7 +5153,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5195,7 +5210,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5250,7 +5265,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5279,7 +5294,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5308,7 +5323,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5337,7 +5352,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5368,7 +5383,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5397,7 +5412,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5426,7 +5441,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5455,7 +5470,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6686,6 +6701,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6697,13 +6719,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6714,8 +6729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6747,43 +6762,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6828,58 +6843,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6904,23 +6919,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6943,18 +6958,30 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>114</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6985,7 +7012,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7014,7 +7041,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7043,7 +7070,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7072,7 +7099,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7101,7 +7128,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7130,7 +7157,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7161,7 +7188,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7190,7 +7217,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7219,7 +7246,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7248,7 +7275,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7399,7 +7426,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7708,7 +7735,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7900,7 +7927,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8018,7 +8045,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8479,6 +8506,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8490,13 +8524,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8507,8 +8534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView showZeros="0" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8540,43 +8567,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8621,58 +8648,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8697,23 +8724,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8765,7 +8792,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8793,18 +8820,30 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8833,7 +8872,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8862,7 +8901,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8891,7 +8930,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8920,7 +8959,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8949,7 +8988,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8980,7 +9019,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9009,7 +9048,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9038,7 +9077,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9067,7 +9106,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9218,7 +9257,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9527,7 +9566,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9719,7 +9758,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9837,7 +9876,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10298,6 +10337,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10309,13 +10355,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10359,43 +10398,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10440,58 +10479,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10516,23 +10555,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10558,7 +10597,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10589,7 +10628,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10618,7 +10657,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10647,7 +10686,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10676,7 +10715,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10705,7 +10744,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10734,7 +10773,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10765,7 +10804,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10794,7 +10833,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10823,7 +10862,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10852,7 +10891,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12083,13 +12122,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12101,6 +12133,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Mạch oxi hóa</t>
   </si>
   <si>
-    <t>Khôn sửa chữa</t>
-  </si>
-  <si>
     <t>KS</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038031816</t>
   </si>
 </sst>
 </file>
@@ -819,30 +819,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,6 +836,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1203,43 +1203,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1284,58 +1284,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1360,23 +1360,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1461,7 +1461,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1637,7 +1637,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2955,6 +2955,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2966,13 +2973,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3016,43 +3016,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3097,58 +3097,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3173,23 +3173,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3322,7 +3322,9 @@
       <c r="G8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="I8" s="54" t="s">
         <v>79</v>
       </c>
@@ -3337,7 +3339,9 @@
         <v>89</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>64</v>
       </c>
@@ -3349,7 +3353,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3378,7 +3382,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3407,7 +3411,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3436,7 +3440,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3465,7 +3469,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3496,7 +3500,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3525,7 +3529,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3554,7 +3558,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3583,7 +3587,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4814,13 +4818,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4832,6 +4829,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4842,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4875,43 +4879,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4956,58 +4960,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5032,23 +5036,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5098,7 +5102,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5153,7 +5157,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5210,7 +5214,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5265,7 +5269,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5294,7 +5298,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5323,7 +5327,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5352,7 +5356,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5383,7 +5387,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5412,7 +5416,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5441,7 +5445,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5470,7 +5474,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6701,13 +6705,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6719,6 +6716,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6729,7 +6733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -6762,43 +6766,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6843,58 +6847,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6919,23 +6923,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6959,16 +6963,16 @@
       <c r="H6" s="58"/>
       <c r="I6" s="54"/>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>64</v>
@@ -6981,7 +6985,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7012,7 +7016,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7041,7 +7045,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7070,7 +7074,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7099,7 +7103,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7128,7 +7132,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7157,7 +7161,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7188,7 +7192,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7217,7 +7221,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7246,7 +7250,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7275,7 +7279,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8506,13 +8510,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8524,6 +8521,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8534,8 +8538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8567,43 +8571,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8648,58 +8652,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8724,23 +8728,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8792,7 +8796,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8826,11 +8830,11 @@
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>64</v>
@@ -8843,7 +8847,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8872,7 +8876,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8901,7 +8905,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8930,7 +8934,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8959,7 +8963,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8988,7 +8992,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9019,7 +9023,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9048,7 +9052,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9077,7 +9081,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9106,7 +9110,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10337,13 +10341,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10355,6 +10352,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10398,43 +10402,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10479,58 +10483,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10555,23 +10559,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="83"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="82"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10597,7 +10601,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10628,7 +10632,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10657,7 +10661,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10686,7 +10690,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10715,7 +10719,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10744,7 +10748,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10773,7 +10777,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10804,7 +10808,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10833,7 +10837,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10862,7 +10866,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10891,7 +10895,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12122,6 +12126,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12133,13 +12144,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -357,9 +357,6 @@
     <t>Xử lại anten GPS</t>
   </si>
   <si>
-    <t>Cháy lad GPS</t>
-  </si>
-  <si>
     <t>Thay led GPS</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>Imei mới: 868183038031816</t>
+  </si>
+  <si>
+    <t>Cháy led GPS</t>
   </si>
 </sst>
 </file>
@@ -819,6 +819,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,30 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1203,43 +1203,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1284,58 +1284,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1360,23 +1360,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,9 @@
       <c r="B6" s="73">
         <v>44713</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="73">
+        <v>44896</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1430,7 +1432,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1461,7 +1463,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1492,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1521,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1548,7 +1550,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1579,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1608,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1637,7 +1639,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1668,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1697,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1726,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2955,13 +2957,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2973,6 +2968,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2983,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3016,43 +3018,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3097,58 +3099,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3173,23 +3175,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,7 +3245,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3258,7 +3260,9 @@
       <c r="B7" s="73">
         <v>44713</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="73">
+        <v>44896</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>67</v>
       </c>
@@ -3298,7 +3302,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3311,7 +3315,9 @@
       <c r="B8" s="73">
         <v>44713</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="73">
+        <v>44896</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>79</v>
@@ -3353,7 +3359,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3382,7 +3388,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3411,7 +3417,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3440,7 +3446,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3469,7 +3475,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3500,7 +3506,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3558,7 +3564,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3587,7 +3593,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4818,6 +4824,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4829,13 +4842,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4846,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4879,43 +4885,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4960,58 +4966,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5036,23 +5042,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5062,7 +5068,9 @@
       <c r="B6" s="73">
         <v>44713</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="73">
+        <v>44896</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
@@ -5078,14 +5086,14 @@
         <v>92</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K6" s="39" t="s">
         <v>93</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -5102,7 +5110,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5117,7 +5125,9 @@
       <c r="B7" s="73">
         <v>44713</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="73">
+        <v>44896</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>68</v>
       </c>
@@ -5157,7 +5167,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5170,16 +5180,16 @@
       <c r="B8" s="73">
         <v>44713</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="73">
+        <v>44896</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="38">
         <v>867330021478311</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>87</v>
-      </c>
+      <c r="F8" s="37"/>
       <c r="G8" s="37" t="s">
         <v>66</v>
       </c>
@@ -5202,7 +5212,9 @@
       <c r="N8" s="74">
         <v>24000</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>64</v>
       </c>
@@ -5214,7 +5226,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5227,7 +5239,9 @@
       <c r="B9" s="73">
         <v>44713</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="73">
+        <v>44896</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>68</v>
       </c>
@@ -5269,7 +5283,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5298,7 +5312,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5327,7 +5341,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5356,7 +5370,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5387,7 +5401,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5416,7 +5430,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5445,7 +5459,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5474,7 +5488,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6705,6 +6719,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6716,13 +6737,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6733,8 +6747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6766,43 +6780,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6847,58 +6861,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6923,23 +6937,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6949,7 +6963,9 @@
       <c r="B6" s="73">
         <v>44713</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="73">
+        <v>44896</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>69</v>
       </c>
@@ -6963,16 +6979,16 @@
       <c r="H6" s="58"/>
       <c r="I6" s="54"/>
       <c r="J6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>64</v>
@@ -6985,7 +7001,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7016,7 +7032,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7045,7 +7061,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7074,7 +7090,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7103,7 +7119,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7132,7 +7148,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7161,7 +7177,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7192,7 +7208,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7221,7 +7237,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7250,7 +7266,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7279,7 +7295,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8510,6 +8526,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8521,13 +8544,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8539,7 +8555,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8571,43 +8587,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8652,58 +8668,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8728,23 +8744,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8754,7 +8770,9 @@
       <c r="B6" s="73">
         <v>44713</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="73">
+        <v>44896</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>71</v>
       </c>
@@ -8767,19 +8785,19 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6" s="74">
         <v>24000</v>
@@ -8796,7 +8814,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8811,7 +8829,9 @@
       <c r="B7" s="73">
         <v>44713</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="73">
+        <v>44896</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>71</v>
       </c>
@@ -8825,16 +8845,16 @@
       <c r="H7" s="37"/>
       <c r="I7" s="54"/>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>64</v>
@@ -8847,7 +8867,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8876,7 +8896,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8905,7 +8925,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8934,7 +8954,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8963,7 +8983,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8992,7 +9012,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9023,7 +9043,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9052,7 +9072,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9081,7 +9101,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9110,7 +9130,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10341,6 +10361,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10352,13 +10379,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10402,43 +10422,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10483,58 +10503,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10559,23 +10579,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10601,7 +10621,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10632,7 +10652,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10661,7 +10681,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10690,7 +10710,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10719,7 +10739,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10748,7 +10768,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10777,7 +10797,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10808,7 +10828,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10837,7 +10857,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10866,7 +10886,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10895,7 +10915,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12126,13 +12146,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12144,6 +12157,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -394,10 +394,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -798,49 +797,25 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,6 +835,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1203,43 +1202,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1284,58 +1283,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1360,23 +1359,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,7 +1431,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1463,7 +1462,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1492,7 +1491,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1520,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1550,7 +1549,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1578,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1607,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1639,7 +1638,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1668,7 +1667,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +1696,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1726,7 +1725,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2957,6 +2956,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2968,13 +2974,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2985,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3018,43 +3017,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3099,58 +3098,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3175,23 +3174,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3245,7 +3244,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3302,7 +3301,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3359,7 +3358,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +3387,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3417,7 +3416,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3446,7 +3445,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3475,7 +3474,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3506,7 +3505,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3535,7 +3534,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3564,7 +3563,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3593,7 +3592,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4824,13 +4823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4842,6 +4834,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4852,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4885,43 +4884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4966,58 +4965,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5042,23 +5041,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5110,7 +5109,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5167,7 +5166,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5226,7 +5225,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5283,7 +5282,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5312,7 +5311,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5341,7 +5340,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5370,7 +5369,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5401,7 +5400,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5430,7 +5429,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5459,7 +5458,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5488,7 +5487,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6719,13 +6718,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6737,6 +6729,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6747,8 +6746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6780,43 +6779,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6861,58 +6860,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6937,23 +6936,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7001,7 +7000,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7032,7 +7031,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7061,7 +7060,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7090,7 +7089,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7119,7 +7118,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7148,7 +7147,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7177,7 +7176,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7208,7 +7207,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7237,7 +7236,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7266,7 +7265,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7295,7 +7294,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8526,13 +8525,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8544,6 +8536,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8555,7 +8554,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8587,43 +8586,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8668,58 +8667,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8744,23 +8743,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8814,7 +8813,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8867,7 +8866,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8896,7 +8895,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8925,7 +8924,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8954,7 +8953,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8983,7 +8982,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9012,7 +9011,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9043,7 +9042,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9072,7 +9071,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9101,7 +9100,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9130,7 +9129,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10361,13 +10360,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10379,6 +10371,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10389,8 +10388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10422,43 +10421,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10503,58 +10502,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10579,49 +10578,79 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="83"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="82"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="B6" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C6" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>867857039901728</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10633,26 +10662,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="B7" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C7" s="73">
+        <v>44743</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183034667928</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10662,26 +10719,52 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C8" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183038090218</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="I8" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10691,26 +10774,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
+      <c r="B9" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C9" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183038587791</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10720,26 +10831,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
+      <c r="B10" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C10" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="38">
+        <v>867330021513307</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="58"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10749,26 +10886,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C11" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="38">
+        <v>869668021839323</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
+      <c r="I11" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10778,26 +10941,56 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C12" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="38">
+        <v>867330021478311</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="I12" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="74">
+        <v>24000</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10809,26 +11002,54 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C13" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="38">
+        <v>861693038270740</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="1"/>
+      <c r="G13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10838,26 +11059,48 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C14" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>70</v>
+      </c>
       <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="39"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10867,26 +11110,54 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C15" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="38">
+        <v>861694031756735</v>
+      </c>
       <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
+      <c r="G15" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="74">
+        <v>24000</v>
+      </c>
       <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="37"/>
+      <c r="P15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10896,26 +11167,48 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="73">
+        <v>44713</v>
+      </c>
+      <c r="C16" s="73">
+        <v>44896</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="38">
+        <v>861694031770272</v>
+      </c>
       <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="39"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11066,7 +11359,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11098,7 +11391,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -11247,7 +11540,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -11279,7 +11572,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -11311,7 +11604,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -11375,7 +11668,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -11503,7 +11796,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11567,7 +11860,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -11685,7 +11978,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -11920,7 +12213,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -12146,6 +12439,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12157,13 +12457,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_TechGlobal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -818,6 +818,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,30 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,43 +1202,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1283,58 +1283,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1359,23 +1359,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1462,7 +1462,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1638,7 +1638,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2956,13 +2956,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2974,6 +2967,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3017,43 +3017,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3098,58 +3098,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3174,23 +3174,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3505,7 +3505,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4823,6 +4823,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4834,13 +4841,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4884,43 +4884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4965,58 +4965,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5041,23 +5041,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5400,7 +5400,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6718,6 +6718,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6729,13 +6736,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6779,43 +6779,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6860,58 +6860,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6936,23 +6936,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7031,7 +7031,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7089,7 +7089,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7207,7 +7207,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8525,6 +8525,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8536,13 +8543,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8586,43 +8586,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8667,58 +8667,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8743,23 +8743,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8924,7 +8924,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9042,7 +9042,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9071,7 +9071,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10360,6 +10360,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10371,13 +10378,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10388,7 +10388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -10421,43 +10421,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10502,58 +10502,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10578,23 +10578,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10764,7 +10764,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12439,13 +12439,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12457,6 +12450,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
